--- a/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
+++ b/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS-4004\MS-4004-Empower-workforce-copilot-use-cases.zh-cn\ResourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY24\ILT_Course\MSU120732_ILT_May_update\MS-4004_Copilot\10_DTP\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA4CB4-91A7-4EFA-9B04-A7C3E028BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36163695-18F6-4687-8479-DD6897F2077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,23 +128,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -173,6 +156,23 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -187,10 +187,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:F14" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2296BE30-301E-4EF2-95CF-F0BE896BB528}" name="日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2296BE30-301E-4EF2-95CF-F0BE896BB528}" name="日期" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8B57F1F3-5DDD-45B5-B113-D6F8CB97F466}" name="印度奶茶总销量（件）"/>
     <tableColumn id="3" xr3:uid="{309F5893-C2A7-45AA-8E9B-0A3B5DAEA895}" name="手工印度奶茶销量（件）"/>
     <tableColumn id="4" xr3:uid="{D89A811E-F659-4160-AB40-E17EB19BA36B}" name="预制印度奶茶销量（件）"/>
@@ -494,17 +494,17 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -547,7 +547,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44957</v>
       </c>
@@ -568,7 +568,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44985</v>
       </c>
@@ -589,7 +589,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45016</v>
       </c>
@@ -610,7 +610,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45046</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45077</v>
       </c>
@@ -652,7 +652,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45107</v>
       </c>
@@ -673,7 +673,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45137</v>
       </c>
@@ -694,7 +694,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45167</v>
       </c>
@@ -715,7 +715,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45199</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45230</v>
       </c>
@@ -757,7 +757,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45260</v>
       </c>
@@ -778,7 +778,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45291</v>
       </c>
@@ -809,6 +809,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
+++ b/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
@@ -52,39 +52,43 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>印度奶茶总销量（件）</t>
+      <t>总茶销售量（单位）</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>手工印度奶茶销量（件）</t>
+      <t>手工制茶销售量（单位）</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>预制印度奶茶销量（件）</t>
+      <t>预制茶销售量（单位）</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -96,12 +100,13 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>印度奶茶在线搜索量</t>
+      <t>线上茶搜索量</t>
     </r>
   </si>
   <si>
@@ -123,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +152,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -434,11 +433,11 @@
   <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="0"/>
-    <tableColumn id="2" name="印度奶茶总销量（件）"/>
-    <tableColumn id="3" name="手工印度奶茶销量（件）"/>
-    <tableColumn id="4" name="预制印度奶茶销量（件）"/>
+    <tableColumn id="2" name="总茶销售量（单位）"/>
+    <tableColumn id="3" name="手工制茶销售量（单位）"/>
+    <tableColumn id="4" name="预制茶销售量（单位）"/>
     <tableColumn id="5" name="社交媒体互动（浏览量）"/>
-    <tableColumn id="6" name="印度奶茶在线搜索量"/>
+    <tableColumn id="6" name="线上茶搜索量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
+++ b/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -58,7 +58,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>总茶销售量（单位）</t>
+      <t>印度奶茶总销售数量（件）</t>
     </r>
   </si>
   <si>
@@ -118,6 +118,28 @@
         <family val="2"/>
       </rPr>
       <t>-4%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4:36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17:05</t>
     </r>
   </si>
 </sst>
@@ -433,7 +455,7 @@
   <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="0"/>
-    <tableColumn id="2" name="总茶销售量（单位）"/>
+    <tableColumn id="2" name="印度奶茶总销售数量（件）"/>
     <tableColumn id="3" name="手工制茶销售量（单位）"/>
     <tableColumn id="4" name="预制茶销售量（单位）"/>
     <tableColumn id="5" name="社交媒体互动（浏览量）"/>
@@ -861,11 +883,11 @@
       <c r="C6">
         <v>499</v>
       </c>
-      <c r="D6">
-        <v>436</v>
-      </c>
-      <c r="E6">
-        <v>1705</v>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
       <c r="F6">
         <v>2996</v>
